--- a/ValueSet-stroke-finding-codes-vs.xlsx
+++ b/ValueSet-stroke-finding-codes-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T10:08:33+00:00</t>
+    <t>2026-02-09T11:30:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-finding-codes-vs.xlsx
+++ b/ValueSet-stroke-finding-codes-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T11:30:19+00:00</t>
+    <t>2026-02-09T12:15:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-finding-codes-vs.xlsx
+++ b/ValueSet-stroke-finding-codes-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T12:15:55+00:00</t>
+    <t>2026-02-09T12:28:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-finding-codes-vs.xlsx
+++ b/ValueSet-stroke-finding-codes-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T12:28:26+00:00</t>
+    <t>2026-02-10T07:57:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-finding-codes-vs.xlsx
+++ b/ValueSet-stroke-finding-codes-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T07:57:24+00:00</t>
+    <t>2026-02-10T12:50:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-finding-codes-vs.xlsx
+++ b/ValueSet-stroke-finding-codes-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T12:50:25+00:00</t>
+    <t>2026-02-16T11:22:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-finding-codes-vs.xlsx
+++ b/ValueSet-stroke-finding-codes-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-16T11:22:57+00:00</t>
+    <t>2026-02-17T08:49:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-finding-codes-vs.xlsx
+++ b/ValueSet-stroke-finding-codes-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T08:49:13+00:00</t>
+    <t>2026-02-17T08:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-finding-codes-vs.xlsx
+++ b/ValueSet-stroke-finding-codes-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T08:59:32+00:00</t>
+    <t>2026-02-17T12:24:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-finding-codes-vs.xlsx
+++ b/ValueSet-stroke-finding-codes-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T12:24:33+00:00</t>
+    <t>2026-02-18T13:09:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-finding-codes-vs.xlsx
+++ b/ValueSet-stroke-finding-codes-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T13:09:07+00:00</t>
+    <t>2026-02-18T13:35:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-finding-codes-vs.xlsx
+++ b/ValueSet-stroke-finding-codes-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T13:35:35+00:00</t>
+    <t>2026-02-18T14:43:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -82,7 +82,10 @@
     <t>Description</t>
   </si>
   <si>
-    <t>ValueSet for specific coded findings like Afib/Flutter status or mTICI score.</t>
+    <t>This ValueSet aggregates a small set of coded “finding/assessment concepts” used by the SpecificFindingObservationProfile for stroke-related documentation. It currently includes:
+- specific disorder concepts relevant to stroke workup (from SpecificFindingCodesVS), and
+- the mTICI assessment concept code (from MTICICodeVS).
+Implementer note: This ValueSet is used to constrain Observation.code. Where Observation.code is a disorder concept (e.g., AF disorder), the Observation instance should be interpreted as capturing an *assessment about that finding* (with the assessment result carried in Observation.valueCodeableConcept, per profile constraints). Where Observation.code is an assessment concept (e.g., mTICI), the Observation.valueCodeableConcept carries the corresponding score/result.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/ValueSet-stroke-finding-codes-vs.xlsx
+++ b/ValueSet-stroke-finding-codes-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T14:43:59+00:00</t>
+    <t>2026-02-19T08:12:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-finding-codes-vs.xlsx
+++ b/ValueSet-stroke-finding-codes-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T08:12:22+00:00</t>
+    <t>2026-02-19T08:49:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-finding-codes-vs.xlsx
+++ b/ValueSet-stroke-finding-codes-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T08:49:26+00:00</t>
+    <t>2026-02-19T09:19:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-finding-codes-vs.xlsx
+++ b/ValueSet-stroke-finding-codes-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T09:19:55+00:00</t>
+    <t>2026-02-19T09:59:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-finding-codes-vs.xlsx
+++ b/ValueSet-stroke-finding-codes-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T09:59:51+00:00</t>
+    <t>2026-02-19T10:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-finding-codes-vs.xlsx
+++ b/ValueSet-stroke-finding-codes-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T10:15:59+00:00</t>
+    <t>2026-02-19T10:59:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-finding-codes-vs.xlsx
+++ b/ValueSet-stroke-finding-codes-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T10:59:57+00:00</t>
+    <t>2026-02-19T11:36:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-finding-codes-vs.xlsx
+++ b/ValueSet-stroke-finding-codes-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T11:36:03+00:00</t>
+    <t>2026-02-19T12:37:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -82,10 +82,14 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This ValueSet aggregates a small set of coded “finding/assessment concepts” used by the SpecificFindingObservationProfile for stroke-related documentation. It currently includes:
-- specific disorder concepts relevant to stroke workup (from SpecificFindingCodesVS), and
-- the mTICI assessment concept code (from MTICICodeVS).
-Implementer note: This ValueSet is used to constrain Observation.code. Where Observation.code is a disorder concept (e.g., AF disorder), the Observation instance should be interpreted as capturing an *assessment about that finding* (with the assessment result carried in Observation.valueCodeableConcept, per profile constraints). Where Observation.code is an assessment concept (e.g., mTICI), the Observation.valueCodeableConcept carries the corresponding score/result.</t>
+    <t>This ValueSet aggregates coded Observation.code concepts used by `SpecificFindingObservationProfile`.
+It currently includes:
+- Specific disorder concepts used as a finding focus (SpecificFindingCodesVS), and
+- The mTICI assessment concept (MTICICodeVS).
+**How to interpret usage**
+- If `Observation.code` is a disorder concept (e.g., AF), the Observation should be interpreted as an assessment about that finding,
+  with the result/status carried in `Observation.valueCodeableConcept` (e.g., AfibFlutterStatusVS).
+- If `Observation.code` is an assessment concept (e.g., mTICI), `Observation.valueCodeableConcept` carries the score (MticiScoreVS).</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/ValueSet-stroke-finding-codes-vs.xlsx
+++ b/ValueSet-stroke-finding-codes-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T12:37:09+00:00</t>
+    <t>2026-02-19T14:25:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-finding-codes-vs.xlsx
+++ b/ValueSet-stroke-finding-codes-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T14:25:22+00:00</t>
+    <t>2026-02-19T14:52:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-finding-codes-vs.xlsx
+++ b/ValueSet-stroke-finding-codes-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T14:52:32+00:00</t>
+    <t>2026-02-20T08:36:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-finding-codes-vs.xlsx
+++ b/ValueSet-stroke-finding-codes-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:36:31+00:00</t>
+    <t>2026-02-20T08:43:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-finding-codes-vs.xlsx
+++ b/ValueSet-stroke-finding-codes-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:43:58+00:00</t>
+    <t>2026-02-20T08:47:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-finding-codes-vs.xlsx
+++ b/ValueSet-stroke-finding-codes-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:47:00+00:00</t>
+    <t>2026-02-20T09:39:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-finding-codes-vs.xlsx
+++ b/ValueSet-stroke-finding-codes-vs.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T09:39:34+00:00</t>
+    <t>2026-02-20T09:50:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-finding-codes-vs.xlsx
+++ b/ValueSet-stroke-finding-codes-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T09:50:49+00:00</t>
+    <t>2026-02-20T10:05:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-finding-codes-vs.xlsx
+++ b/ValueSet-stroke-finding-codes-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:05:07+00:00</t>
+    <t>2026-02-20T10:17:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-finding-codes-vs.xlsx
+++ b/ValueSet-stroke-finding-codes-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:17:22+00:00</t>
+    <t>2026-02-20T10:31:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-stroke-finding-codes-vs.xlsx
+++ b/ValueSet-stroke-finding-codes-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:31:35+00:00</t>
+    <t>2026-02-24T10:24:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
